--- a/main/bin/Debug/ArquivosDados/Login.xlsx
+++ b/main/bin/Debug/ArquivosDados/Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B714B7FE-68EA-4FB6-AEB3-81264F8B72D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{86202BF8-DBE2-4801-81D8-D5CA5064EDB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/main/bin/Debug/ArquivosDados/Login.xlsx
+++ b/main/bin/Debug/ArquivosDados/Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{86202BF8-DBE2-4801-81D8-D5CA5064EDB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8325F6C1-FE8D-49DD-8AF7-63AACFCD9680}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/main/bin/Debug/ArquivosDados/Login.xlsx
+++ b/main/bin/Debug/ArquivosDados/Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8325F6C1-FE8D-49DD-8AF7-63AACFCD9680}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B714B7FE-68EA-4FB6-AEB3-81264F8B72D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/main/bin/Debug/ArquivosDados/Login.xlsx
+++ b/main/bin/Debug/ArquivosDados/Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B714B7FE-68EA-4FB6-AEB3-81264F8B72D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{90FCAF1B-41E3-491B-91AF-AC25DACD58AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">Nome </t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>FALHA</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/main/bin/Debug/ArquivosDados/Login.xlsx
+++ b/main/bin/Debug/ArquivosDados/Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{90FCAF1B-41E3-491B-91AF-AC25DACD58AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8325F6C1-FE8D-49DD-8AF7-63AACFCD9680}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t xml:space="preserve">Nome </t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>FALHA</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
